--- a/数据库/大作业/数据库/产品待办列表.xlsx
+++ b/数据库/大作业/数据库/产品待办列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingt\Desktop\2019短学期实训\项目经理文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ly_schoolhelper\数据库\大作业\数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84C894-F718-4B82-A03B-688FE39EEDA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C75AFC-7B47-4F08-A921-E5020E033DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="79">
   <si>
     <t>需求种类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,20 +328,6 @@
     <t>梅洛瑜</t>
   </si>
   <si>
-    <t>杨宇</t>
-  </si>
-  <si>
-    <t>杨宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喻泽弘</t>
-  </si>
-  <si>
-    <t>喻泽弘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详细</t>
   </si>
   <si>
@@ -349,15 +335,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凌泰炜</t>
-  </si>
-  <si>
-    <t>凌泰炜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜昕昱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>施展</t>
+  </si>
+  <si>
+    <t>张婧媛</t>
+  </si>
+  <si>
+    <t>刘钰宵</t>
   </si>
 </sst>
 </file>
@@ -747,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -793,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -824,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>12</v>
@@ -855,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -886,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>36</v>
@@ -898,7 +882,7 @@
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -917,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>35</v>
@@ -929,7 +913,7 @@
         <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -948,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
@@ -960,7 +944,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -979,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>15</v>
@@ -991,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1010,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>39</v>
@@ -1022,7 +1006,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1041,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>37</v>
@@ -1072,7 +1056,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>38</v>
@@ -1103,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
@@ -1115,7 +1099,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1134,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
@@ -1146,7 +1130,7 @@
         <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1165,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>62</v>
@@ -1177,7 +1161,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1196,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
@@ -1208,7 +1192,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1227,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>49</v>
@@ -1258,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>55</v>
@@ -1270,7 +1254,7 @@
         <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1289,7 +1273,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>58</v>
@@ -1301,7 +1285,7 @@
         <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1320,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>61</v>
@@ -1332,7 +1316,7 @@
         <v>66</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1351,7 +1335,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>67</v>
@@ -1363,7 +1347,7 @@
         <v>70</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1382,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>68</v>
@@ -1394,7 +1378,7 @@
         <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1935,6 +1919,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>